--- a/Android知识框架.xlsx
+++ b/Android知识框架.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/foking/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/foking/Github/knowledge/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="18980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>泛型</t>
     <rPh sb="0" eb="1">
@@ -109,16 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Touch时间传递</t>
-    <rPh sb="5" eb="6">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chuan di</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Activity生命周期相关</t>
     <rPh sb="8" eb="9">
       <t>sheng mign</t>
@@ -470,6 +460,37 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>xin t xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan chegn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan cehng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch事件传递</t>
+    <rPh sb="5" eb="6">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chuan di</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B128"/>
+  <dimension ref="B1:D128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,241 +826,271 @@
     <col min="2" max="2" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="32" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="40" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="43" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="45" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="46" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="47" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="48" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Android知识框架.xlsx
+++ b/Android知识框架.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>泛型</t>
     <rPh sb="0" eb="1">
@@ -491,6 +491,163 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>chuan di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="1">
+      <t>nei rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化类型</t>
+    <rPh sb="0" eb="1">
+      <t>you hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~10.30(周二)</t>
+    <rPh sb="7" eb="8">
+      <t>zhou er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31(周三)</t>
+    <rPh sb="6" eb="7">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1(周四)</t>
+    <rPh sb="5" eb="6">
+      <t>zhou si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.2(周五)</t>
+    <rPh sb="5" eb="6">
+      <t>zhou wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3(周六)</t>
+    <rPh sb="5" eb="6">
+      <t>zhou liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.4(周日)</t>
+    <rPh sb="5" eb="6">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5(周一)</t>
+    <rPh sb="5" eb="6">
+      <t>zhou yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、17、18、19、20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <rPh sb="0" eb="1">
+      <t>fu xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rxjava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22、25、26、27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成(需要继续深入)</t>
+    <rPh sb="3" eb="4">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji xu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成(需要继续深入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量、网络、webVIew还不完善</t>
+    <rPh sb="0" eb="1">
+      <t>dian liang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wang luo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu wan shan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,7 +681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -532,12 +689,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -815,19 +1052,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D128"/>
+  <dimension ref="B1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -835,7 +1075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -843,7 +1083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -851,12 +1091,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -864,12 +1104,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -877,23 +1117,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -901,12 +1150,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -914,102 +1163,262 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="5">
+        <v>24</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>13</v>
       </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="34" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>14</v>
       </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1044,6 +1453,9 @@
     <row r="42" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1581,19 @@
     <row r="127" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Android知识框架.xlsx
+++ b/Android知识框架.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>泛型</t>
     <rPh sb="0" eb="1">
@@ -649,6 +649,40 @@
     <rPh sb="14" eb="15">
       <t>bu wan shan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性动画待完善</t>
+    <rPh sb="0" eb="1">
+      <t>shu xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成(需要继续深入)</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>wan cgeng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1107,6 +1141,9 @@
     <row r="7" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,6 +1191,9 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1190,6 +1230,9 @@
       <c r="B17" t="s">
         <v>37</v>
       </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>55</v>
       </c>
@@ -1210,6 +1253,9 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
       <c r="J18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1218,7 +1264,9 @@
       <c r="M18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1227,6 +1275,9 @@
     <row r="19" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>66</v>
@@ -1246,6 +1297,9 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
       <c r="J20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1278,6 +1332,9 @@
     <row r="22" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>64</v>
@@ -1332,6 +1389,9 @@
       <c r="B25" t="s">
         <v>33</v>
       </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1345,6 +1405,9 @@
     <row r="26" spans="2:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
